--- a/Components.xlsx
+++ b/Components.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ug.kth.se\dfs\home\i\l\ilka\appdata\xp.V2\Desktop\Open-source Material\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eugengenov/Documents/GitHub/HVDC_IED/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E435BA70-E87A-3249-AC08-5D023F737C6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="14400" windowHeight="9528"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -17,13 +18,14 @@
     <sheet name="ADC PMOD" sheetId="3" r:id="rId3"/>
     <sheet name="DIGIN PMOD" sheetId="4" r:id="rId4"/>
     <sheet name="DIGOUT PMOD" sheetId="5" r:id="rId5"/>
+    <sheet name="Other" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="126">
   <si>
     <t>Component</t>
   </si>
@@ -398,12 +400,15 @@
   </si>
   <si>
     <t>https://www.elfa.se/en/connectors/terminal-blocks/wire-to-board-terminal-blocks/c/cat-DNAV_PL_041112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resistor </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -952,51 +957,51 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11"/>
   </cellXfs>
   <cellStyles count="45">
-    <cellStyle name="20% - Accent1 2" xfId="22"/>
-    <cellStyle name="20% - Accent2 2" xfId="26"/>
-    <cellStyle name="20% - Accent3 2" xfId="30"/>
-    <cellStyle name="20% - Accent4 2" xfId="34"/>
-    <cellStyle name="20% - Accent5 2" xfId="38"/>
-    <cellStyle name="20% - Accent6 2" xfId="42"/>
-    <cellStyle name="40% - Accent1 2" xfId="23"/>
-    <cellStyle name="40% - Accent2 2" xfId="27"/>
-    <cellStyle name="40% - Accent3 2" xfId="31"/>
-    <cellStyle name="40% - Accent4 2" xfId="35"/>
-    <cellStyle name="40% - Accent5 2" xfId="39"/>
-    <cellStyle name="40% - Accent6 2" xfId="43"/>
-    <cellStyle name="60% - Accent1 2" xfId="24"/>
-    <cellStyle name="60% - Accent2 2" xfId="28"/>
-    <cellStyle name="60% - Accent3 2" xfId="32"/>
-    <cellStyle name="60% - Accent4 2" xfId="36"/>
-    <cellStyle name="60% - Accent5 2" xfId="40"/>
-    <cellStyle name="60% - Accent6 2" xfId="44"/>
-    <cellStyle name="Accent1 2" xfId="21"/>
-    <cellStyle name="Accent2 2" xfId="25"/>
-    <cellStyle name="Accent3 2" xfId="29"/>
-    <cellStyle name="Accent4 2" xfId="33"/>
-    <cellStyle name="Accent5 2" xfId="37"/>
-    <cellStyle name="Accent6 2" xfId="41"/>
-    <cellStyle name="Bad 2" xfId="16"/>
+    <cellStyle name="20% - Accent1 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="39" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="24" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="36" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Accent1 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Accent2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Accent3 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Accent4 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Accent5 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Accent6 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Bad 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
     <cellStyle name="Calculation" xfId="6" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="8" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text 2" xfId="20"/>
-    <cellStyle name="Good 2" xfId="15"/>
+    <cellStyle name="Explanatory Text 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Good 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="2" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="3" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4 2" xfId="14"/>
+    <cellStyle name="Heading 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8"/>
     <cellStyle name="Input" xfId="4" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="7" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral 2" xfId="17"/>
+    <cellStyle name="Neutral 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="12"/>
-    <cellStyle name="Normal 3" xfId="10"/>
-    <cellStyle name="Note 2" xfId="19"/>
+    <cellStyle name="Normal 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Normal 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Note 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
     <cellStyle name="Output" xfId="5" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title 2" xfId="13"/>
+    <cellStyle name="Title 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
     <cellStyle name="Total" xfId="9" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text 2" xfId="18"/>
+    <cellStyle name="Warning Text 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1087,6 +1092,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1122,6 +1144,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1297,22 +1336,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView zoomScale="150" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" customWidth="1"/>
-    <col min="5" max="5" width="24.77734375" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1320,7 +1359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1331,18 +1370,18 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1350,7 +1389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1361,7 +1400,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -1372,7 +1411,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -1380,7 +1419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -1388,7 +1427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -1397,26 +1436,29 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{CC6C737D-9661-564A-83C0-163EBDE6529A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A5" zoomScale="134" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.109375" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="29.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1424,18 +1466,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1446,7 +1488,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1457,7 +1499,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1468,7 +1510,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1479,7 +1521,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1490,7 +1532,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1498,7 +1540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1509,7 +1551,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1520,7 +1562,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1531,7 +1573,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>120</v>
       </c>
@@ -1542,7 +1584,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>121</v>
       </c>
@@ -1553,7 +1595,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1564,7 +1606,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>117</v>
       </c>
@@ -1575,7 +1617,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>118</v>
       </c>
@@ -1586,7 +1628,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1597,7 +1639,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1608,18 +1650,18 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>37</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1630,7 +1672,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>115</v>
       </c>
@@ -1641,7 +1683,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>114</v>
       </c>
@@ -1652,7 +1694,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>104</v>
       </c>
@@ -1663,7 +1705,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>106</v>
       </c>
@@ -1674,18 +1716,18 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>110</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -1698,42 +1740,46 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1"/>
-    <hyperlink ref="C10" r:id="rId2"/>
-    <hyperlink ref="C11" r:id="rId3"/>
-    <hyperlink ref="C22" r:id="rId4"/>
-    <hyperlink ref="C21" r:id="rId5"/>
-    <hyperlink ref="C20" r:id="rId6"/>
-    <hyperlink ref="C18" r:id="rId7"/>
-    <hyperlink ref="C17" r:id="rId8"/>
-    <hyperlink ref="C16" r:id="rId9"/>
-    <hyperlink ref="C13" r:id="rId10"/>
-    <hyperlink ref="C12" display="https://www.elfa.se/en/hook-up-wire-bare-79-mm-bedra-berkenhof-frt-cu-tr-mm-hg/p/15516232?q=wire&amp;filter_Conductor+insulation=Bare&amp;filter_%26oslash%3B+wire%7E%7Emm=0.8&amp;filter_%26oslash%3B+wire%7E%7Emm=1&amp;filter_Length%7E%7Em=14&amp;page=1&amp;origPos=924&amp;origPageSi"/>
-    <hyperlink ref="C7" r:id="rId11"/>
-    <hyperlink ref="C6" r:id="rId12"/>
-    <hyperlink ref="C5" r:id="rId13"/>
-    <hyperlink ref="C4" r:id="rId14"/>
-    <hyperlink ref="C24" r:id="rId15"/>
+    <hyperlink ref="C14" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C10" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C11" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C22" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="C21" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="C20" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="C18" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="C17" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="C16" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="C13" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="C12" display="https://www.elfa.se/en/hook-up-wire-bare-79-mm-bedra-berkenhof-frt-cu-tr-mm-hg/p/15516232?q=wire&amp;filter_Conductor+insulation=Bare&amp;filter_%26oslash%3B+wire%7E%7Emm=0.8&amp;filter_%26oslash%3B+wire%7E%7Emm=1&amp;filter_Length%7E%7Em=14&amp;page=1&amp;origPos=924&amp;origPageSi" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="C7" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="C6" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="C5" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="C4" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="C24" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="C15" r:id="rId16" xr:uid="{9E84FADB-81D2-D44F-BA56-4A96E335FE6B}"/>
+    <hyperlink ref="C25" r:id="rId17" xr:uid="{C88B7D33-E53A-7544-AADD-F11C1345234B}"/>
+    <hyperlink ref="C2" r:id="rId18" xr:uid="{2D49343F-716B-4849-B1FF-3BB6C7D3D3BE}"/>
+    <hyperlink ref="C19" r:id="rId19" xr:uid="{25D45D1F-6E49-5543-9629-89AA7D8D02CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId20"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1745,7 +1791,7 @@
       </c>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1756,7 +1802,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1767,7 +1813,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1781,7 +1827,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>35</v>
       </c>
@@ -1795,7 +1841,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>72</v>
       </c>
@@ -1809,7 +1855,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>74</v>
       </c>
@@ -1823,7 +1869,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>76</v>
       </c>
@@ -1837,7 +1883,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>56</v>
       </c>
@@ -1851,7 +1897,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>58</v>
       </c>
@@ -1865,7 +1911,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>60</v>
       </c>
@@ -1879,7 +1925,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>62</v>
       </c>
@@ -1893,7 +1939,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>78</v>
       </c>
@@ -1907,7 +1953,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>64</v>
       </c>
@@ -1921,7 +1967,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>66</v>
       </c>
@@ -1935,7 +1981,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>68</v>
       </c>
@@ -1949,7 +1995,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>70</v>
       </c>
@@ -1963,7 +2009,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>81</v>
       </c>
@@ -1977,7 +2023,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>82</v>
       </c>
@@ -1991,7 +2037,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>84</v>
       </c>
@@ -2005,7 +2051,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>86</v>
       </c>
@@ -2019,7 +2065,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>90</v>
       </c>
@@ -2033,7 +2079,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>89</v>
       </c>
@@ -2047,7 +2093,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>92</v>
       </c>
@@ -2061,68 +2107,68 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -2135,19 +2181,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2155,7 +2201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2166,7 +2212,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -2177,7 +2223,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -2188,7 +2234,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>112</v>
       </c>
@@ -2199,7 +2245,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>95</v>
       </c>
@@ -2210,7 +2256,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>64</v>
       </c>
@@ -2221,7 +2267,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>97</v>
       </c>
@@ -2232,7 +2278,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>96</v>
       </c>
@@ -2243,7 +2289,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>98</v>
       </c>
@@ -2256,7 +2302,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
@@ -2264,19 +2310,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.21875" customWidth="1"/>
+    <col min="1" max="1" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2284,7 +2330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2295,7 +2341,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -2306,7 +2352,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -2317,7 +2363,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>112</v>
       </c>
@@ -2328,7 +2374,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>76</v>
       </c>
@@ -2339,7 +2385,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>95</v>
       </c>
@@ -2350,7 +2396,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>64</v>
       </c>
@@ -2361,7 +2407,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>97</v>
       </c>
@@ -2372,7 +2418,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>96</v>
       </c>
@@ -2385,15 +2431,43 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1"/>
-    <hyperlink ref="C7" r:id="rId2"/>
-    <hyperlink ref="C6" r:id="rId3"/>
-    <hyperlink ref="C8" r:id="rId4"/>
-    <hyperlink ref="C9" r:id="rId5"/>
-    <hyperlink ref="C10" r:id="rId6"/>
-    <hyperlink ref="C4" r:id="rId7"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="C8" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="C4" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C14E0F5E-D6FB-674D-B18C-138C3D19AAAF}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>